--- a/SESTestcases.xlsx
+++ b/SESTestcases.xlsx
@@ -25,6 +25,7 @@
     <x:sheet name="Salesforce_SESAvailableService" sheetId="18" r:id="rId18"/>
     <x:sheet name="Salesforce_SESPayments" sheetId="19" r:id="rId19"/>
     <x:sheet name="Salesforce_SESAllowanceType" sheetId="20" r:id="rId20"/>
+    <x:sheet name="Salesforce_SESBankAD" sheetId="21" r:id="rId21"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="537">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="557">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -1643,6 +1644,66 @@
   </x:si>
   <x:si>
     <x:t>User should be able to validate the Allowance Type is deleted</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Bank Account Details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Bank Account Details tab, and click on New button</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the New  Bank Account Details Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Account Number </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Account Number field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Account Number field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Sort Code </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Sort Code field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Sort Code field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Name On Account </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Name On Account field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Name On Account field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Validated </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Validated field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Validated field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Bank Account Name </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Bank Account Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Bank Account Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Save button to save Bank Account Details with fields</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that a New Bank Account Details is created</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1808,6 +1869,26 @@
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table118" displayName="Table118" ref="A1:K24" totalsRowShown="0">
   <x:autoFilter ref="A1:K24"/>
+  <x:tableColumns count="11">
+    <x:tableColumn id="1" name="TestScenarioID"/>
+    <x:tableColumn id="2" name="TestCaseID"/>
+    <x:tableColumn id="3" name="Description"/>
+    <x:tableColumn id="4" name="Precondition"/>
+    <x:tableColumn id="5" name="TestData"/>
+    <x:tableColumn id="6" name="Steps"/>
+    <x:tableColumn id="7" name="UserAction"/>
+    <x:tableColumn id="8" name="ExpectedResult"/>
+    <x:tableColumn id="9" name="Approved/Rejected"/>
+    <x:tableColumn id="10" name="ReasonToReject"/>
+    <x:tableColumn id="11" name="IsModified/Added"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table119" displayName="Table119" ref="A1:K10" totalsRowShown="0">
+  <x:autoFilter ref="A1:K10"/>
   <x:tableColumns count="11">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -2908,7 +2989,7 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId23"/>
+    <x:tablePart r:id="rId24"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -3301,7 +3382,7 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId38"/>
+    <x:tablePart r:id="rId39"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -4204,7 +4285,7 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId39"/>
+    <x:tablePart r:id="rId40"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -4630,7 +4711,7 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId40"/>
+    <x:tablePart r:id="rId41"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -5197,7 +5278,270 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId41"/>
+    <x:tablePart r:id="rId42"/>
+  </x:tableParts>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:K10"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="25.980625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="46.700625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="57.700625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="68.130625" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="18.980625" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:11">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K1" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:11">
+      <x:c r="A2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>537</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s"/>
+      <x:c r="F2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>539</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s"/>
+      <x:c r="J2" s="0" t="s"/>
+      <x:c r="K2" s="0" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:11">
+      <x:c r="A3" s="0" t="s"/>
+      <x:c r="B3" s="0" t="s"/>
+      <x:c r="C3" s="0" t="s"/>
+      <x:c r="D3" s="0" t="s"/>
+      <x:c r="E3" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s"/>
+      <x:c r="J3" s="0" t="s"/>
+      <x:c r="K3" s="0" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:11">
+      <x:c r="A4" s="0" t="s"/>
+      <x:c r="B4" s="0" t="s"/>
+      <x:c r="C4" s="0" t="s"/>
+      <x:c r="D4" s="0" t="s"/>
+      <x:c r="E4" s="0" t="s">
+        <x:v>540</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>541</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>542</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s"/>
+      <x:c r="J4" s="0" t="s"/>
+      <x:c r="K4" s="0" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:11">
+      <x:c r="A5" s="0" t="s"/>
+      <x:c r="B5" s="0" t="s"/>
+      <x:c r="C5" s="0" t="s"/>
+      <x:c r="D5" s="0" t="s"/>
+      <x:c r="E5" s="0" t="s">
+        <x:v>543</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>544</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>545</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s"/>
+      <x:c r="J5" s="0" t="s"/>
+      <x:c r="K5" s="0" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:11">
+      <x:c r="A6" s="0" t="s"/>
+      <x:c r="B6" s="0" t="s"/>
+      <x:c r="C6" s="0" t="s"/>
+      <x:c r="D6" s="0" t="s"/>
+      <x:c r="E6" s="0" t="s">
+        <x:v>546</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>548</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s"/>
+      <x:c r="J6" s="0" t="s"/>
+      <x:c r="K6" s="0" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:11">
+      <x:c r="A7" s="0" t="s"/>
+      <x:c r="B7" s="0" t="s"/>
+      <x:c r="C7" s="0" t="s"/>
+      <x:c r="D7" s="0" t="s"/>
+      <x:c r="E7" s="0" t="s">
+        <x:v>549</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>550</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>551</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s"/>
+      <x:c r="J7" s="0" t="s"/>
+      <x:c r="K7" s="0" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:11">
+      <x:c r="A8" s="0" t="s"/>
+      <x:c r="B8" s="0" t="s"/>
+      <x:c r="C8" s="0" t="s"/>
+      <x:c r="D8" s="0" t="s"/>
+      <x:c r="E8" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s"/>
+      <x:c r="J8" s="0" t="s"/>
+      <x:c r="K8" s="0" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:11">
+      <x:c r="A9" s="0" t="s"/>
+      <x:c r="B9" s="0" t="s"/>
+      <x:c r="C9" s="0" t="s"/>
+      <x:c r="D9" s="0" t="s"/>
+      <x:c r="E9" s="0" t="s">
+        <x:v>552</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>553</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>554</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s"/>
+      <x:c r="J9" s="0" t="s"/>
+      <x:c r="K9" s="0" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:11">
+      <x:c r="A10" s="0" t="s"/>
+      <x:c r="B10" s="0" t="s"/>
+      <x:c r="C10" s="0" t="s"/>
+      <x:c r="D10" s="0" t="s"/>
+      <x:c r="E10" s="0" t="s"/>
+      <x:c r="F10" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>555</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>556</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s"/>
+      <x:c r="J10" s="0" t="s"/>
+      <x:c r="K10" s="0" t="s"/>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="1">
+    <x:tablePart r:id="rId43"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -5638,7 +5982,7 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId24"/>
+    <x:tablePart r:id="rId25"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -6205,7 +6549,7 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId25"/>
+    <x:tablePart r:id="rId26"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -6730,7 +7074,7 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId26"/>
+    <x:tablePart r:id="rId27"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -7255,7 +7599,7 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId27"/>
+    <x:tablePart r:id="rId28"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -7780,7 +8124,7 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId28"/>
+    <x:tablePart r:id="rId29"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -8431,7 +8775,7 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId29"/>
+    <x:tablePart r:id="rId30"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -9614,7 +9958,7 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId30"/>
+    <x:tablePart r:id="rId31"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -10223,7 +10567,7 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId31"/>
+    <x:tablePart r:id="rId32"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -10538,7 +10882,7 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId32"/>
+    <x:tablePart r:id="rId33"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -11250,7 +11594,7 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId33"/>
+    <x:tablePart r:id="rId34"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -11710,7 +12054,7 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId34"/>
+    <x:tablePart r:id="rId35"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -12086,7 +12430,7 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId35"/>
+    <x:tablePart r:id="rId36"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -13092,7 +13436,7 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId36"/>
+    <x:tablePart r:id="rId37"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -14056,7 +14400,7 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId37"/>
+    <x:tablePart r:id="rId38"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/SESTestcases.xlsx
+++ b/SESTestcases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20C4D22-B53F-48CA-B221-5F59DBAEDAC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F58337-0136-422B-AAFD-D711AAC52DAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16896" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16896" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Salesforce_SESCaseBC" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2417" uniqueCount="558">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -2587,7 +2587,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I20"/>
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5782,7 +5782,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8033,7 +8033,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10137,7 +10137,7 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10953,7 +10953,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="F49" t="s">
         <v>35</v>
       </c>
@@ -10964,7 +10964,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -10986,8 +10986,11 @@
       <c r="H50" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I50" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="F51" t="s">
         <v>19</v>
       </c>
@@ -10998,7 +11001,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="F52" t="s">
         <v>23</v>
       </c>

--- a/SESTestcases.xlsx
+++ b/SESTestcases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nithu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE10010-D570-489F-A6E1-26F65D6DDEE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD23D4A-BDAC-497E-98AB-C9999028E3A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="37" activeTab="39" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Salesforce_SESCaseBC" sheetId="2" r:id="rId1"/>
@@ -2944,7 +2944,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K22" totalsRowShown="0">
-  <autoFilter ref="A1:K22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <autoFilter ref="A1:K22" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Step 1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TestCaseID"/>
@@ -2964,7 +2970,13 @@
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table19" displayName="Table19" ref="A1:K26" totalsRowShown="0">
-  <autoFilter ref="A1:K26" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
+  <autoFilter ref="A1:K26" xr:uid="{00000000-0009-0000-0100-00000A000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Step 1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="TestCaseID"/>
@@ -2984,7 +2996,13 @@
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table110" displayName="Table110" ref="A1:K12" totalsRowShown="0">
-  <autoFilter ref="A1:K12" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
+  <autoFilter ref="A1:K12" xr:uid="{00000000-0009-0000-0100-00000B000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Step 1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="TestCaseID"/>
@@ -3004,7 +3022,13 @@
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table111" displayName="Table111" ref="A1:K31" totalsRowShown="0">
-  <autoFilter ref="A1:K31" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
+  <autoFilter ref="A1:K31" xr:uid="{00000000-0009-0000-0100-00000C000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Step 1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="TestCaseID"/>
@@ -3024,7 +3048,13 @@
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table112" displayName="Table112" ref="A1:K19" totalsRowShown="0">
-  <autoFilter ref="A1:K19" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
+  <autoFilter ref="A1:K19" xr:uid="{00000000-0009-0000-0100-00000D000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Step 1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="TestCaseID"/>
@@ -3044,7 +3074,13 @@
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table113" displayName="Table113" ref="A1:K15" totalsRowShown="0">
-  <autoFilter ref="A1:K15" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
+  <autoFilter ref="A1:K15" xr:uid="{00000000-0009-0000-0100-00000E000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Step 1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="TestCaseID"/>
@@ -3110,7 +3146,13 @@
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table116" displayName="Table116" ref="A1:K16" totalsRowShown="0">
-  <autoFilter ref="A1:K16" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
+  <autoFilter ref="A1:K16" xr:uid="{00000000-0009-0000-0100-000011000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Step 1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="TestCaseID"/>
@@ -3130,7 +3172,13 @@
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Table117" displayName="Table117" ref="A1:K40" totalsRowShown="0">
-  <autoFilter ref="A1:K40" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
+  <autoFilter ref="A1:K40" xr:uid="{00000000-0009-0000-0100-000012000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Step 1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="TestCaseID"/>
@@ -3150,7 +3198,13 @@
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Table118" displayName="Table118" ref="A1:K17" totalsRowShown="0">
-  <autoFilter ref="A1:K17" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
+  <autoFilter ref="A1:K17" xr:uid="{00000000-0009-0000-0100-000013000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Step 1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="TestCaseID"/>
@@ -3196,7 +3250,13 @@
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Table119" displayName="Table119" ref="A1:K24" totalsRowShown="0">
-  <autoFilter ref="A1:K24" xr:uid="{00000000-0009-0000-0100-000014000000}"/>
+  <autoFilter ref="A1:K24" xr:uid="{00000000-0009-0000-0100-000014000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Step 1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="TestCaseID"/>
@@ -3216,7 +3276,13 @@
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Table120" displayName="Table120" ref="A1:K20" totalsRowShown="0">
-  <autoFilter ref="A1:K20" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
+  <autoFilter ref="A1:K20" xr:uid="{00000000-0009-0000-0100-000015000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Step 1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="TestCaseID"/>
@@ -3236,7 +3302,13 @@
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF15000000}" name="Table121" displayName="Table121" ref="A1:K14" totalsRowShown="0">
-  <autoFilter ref="A1:K14" xr:uid="{00000000-0009-0000-0100-000016000000}"/>
+  <autoFilter ref="A1:K14" xr:uid="{00000000-0009-0000-0100-000016000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Step 1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1500-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-1500-000002000000}" name="TestCaseID"/>
@@ -3282,7 +3354,13 @@
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF17000000}" name="Table123" displayName="Table123" ref="A1:K4" totalsRowShown="0">
-  <autoFilter ref="A1:K4" xr:uid="{00000000-0009-0000-0100-000018000000}"/>
+  <autoFilter ref="A1:K4" xr:uid="{00000000-0009-0000-0100-000018000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Step 1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1700-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-1700-000002000000}" name="TestCaseID"/>
@@ -3302,7 +3380,13 @@
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF18000000}" name="Table124" displayName="Table124" ref="A1:K18" totalsRowShown="0">
-  <autoFilter ref="A1:K18" xr:uid="{00000000-0009-0000-0100-000019000000}"/>
+  <autoFilter ref="A1:K18" xr:uid="{00000000-0009-0000-0100-000019000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Step 1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1800-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-1800-000002000000}" name="TestCaseID"/>
@@ -3322,7 +3406,13 @@
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{00000000-000C-0000-FFFF-FFFF19000000}" name="Table125" displayName="Table125" ref="A1:K10" totalsRowShown="0">
-  <autoFilter ref="A1:K10" xr:uid="{00000000-0009-0000-0100-00001A000000}"/>
+  <autoFilter ref="A1:K10" xr:uid="{00000000-0009-0000-0100-00001A000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Step 1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1900-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-1900-000002000000}" name="TestCaseID"/>
@@ -3402,7 +3492,13 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table12" displayName="Table12" ref="A1:K24" totalsRowShown="0">
-  <autoFilter ref="A1:K24" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <autoFilter ref="A1:K24" xr:uid="{00000000-0009-0000-0100-000003000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Step 1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="TestCaseID"/>
@@ -3422,7 +3518,13 @@
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{00000000-000C-0000-FFFF-FFFF1D000000}" name="Table129" displayName="Table129" ref="A1:K18" totalsRowShown="0">
-  <autoFilter ref="A1:K18" xr:uid="{00000000-0009-0000-0100-00001E000000}"/>
+  <autoFilter ref="A1:K18" xr:uid="{00000000-0009-0000-0100-00001E000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Step 1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1D00-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-1D00-000002000000}" name="TestCaseID"/>
@@ -3442,7 +3544,13 @@
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{00000000-000C-0000-FFFF-FFFF1E000000}" name="Table130" displayName="Table130" ref="A1:K18" totalsRowShown="0">
-  <autoFilter ref="A1:K18" xr:uid="{00000000-0009-0000-0100-00001F000000}"/>
+  <autoFilter ref="A1:K18" xr:uid="{00000000-0009-0000-0100-00001F000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Step 1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1E00-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-1E00-000002000000}" name="TestCaseID"/>
@@ -3462,7 +3570,13 @@
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{00000000-000C-0000-FFFF-FFFF1F000000}" name="Table131" displayName="Table131" ref="A1:K18" totalsRowShown="0">
-  <autoFilter ref="A1:K18" xr:uid="{00000000-0009-0000-0100-000020000000}"/>
+  <autoFilter ref="A1:K18" xr:uid="{00000000-0009-0000-0100-000020000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Step 1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1F00-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-1F00-000002000000}" name="TestCaseID"/>
@@ -3482,7 +3596,13 @@
 
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{00000000-000C-0000-FFFF-FFFF20000000}" name="Table132" displayName="Table132" ref="A1:K16" totalsRowShown="0">
-  <autoFilter ref="A1:K16" xr:uid="{00000000-0009-0000-0100-000021000000}"/>
+  <autoFilter ref="A1:K16" xr:uid="{00000000-0009-0000-0100-000021000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Step 1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-2000-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-2000-000002000000}" name="TestCaseID"/>
@@ -3502,7 +3622,13 @@
 
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{00000000-000C-0000-FFFF-FFFF21000000}" name="Table133" displayName="Table133" ref="A1:K16" totalsRowShown="0">
-  <autoFilter ref="A1:K16" xr:uid="{00000000-0009-0000-0100-000022000000}"/>
+  <autoFilter ref="A1:K16" xr:uid="{00000000-0009-0000-0100-000022000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Step 1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-2100-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-2100-000002000000}" name="TestCaseID"/>
@@ -3640,7 +3766,13 @@
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table13" displayName="Table13" ref="A1:K22" totalsRowShown="0">
-  <autoFilter ref="A1:K22" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <autoFilter ref="A1:K22" xr:uid="{00000000-0009-0000-0100-000004000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Step 1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="TestCaseID"/>
@@ -4095,7 +4227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4173,7 +4305,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>19</v>
       </c>
@@ -4187,7 +4319,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>23</v>
       </c>
@@ -4201,7 +4333,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>27</v>
       </c>
@@ -4215,7 +4347,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>31</v>
       </c>
@@ -4229,7 +4361,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>35</v>
       </c>
@@ -4243,7 +4375,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>39</v>
       </c>
@@ -4257,7 +4389,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>43</v>
       </c>
@@ -4294,7 +4426,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>20</v>
       </c>
@@ -4331,7 +4463,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>19</v>
       </c>
@@ -4345,7 +4477,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>23</v>
       </c>
@@ -4359,7 +4491,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>27</v>
       </c>
@@ -4373,7 +4505,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>31</v>
       </c>
@@ -4387,7 +4519,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>35</v>
       </c>
@@ -4401,7 +4533,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>39</v>
       </c>
@@ -4415,7 +4547,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>43</v>
       </c>
@@ -4452,7 +4584,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>20</v>
       </c>
@@ -4463,7 +4595,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>24</v>
       </c>
@@ -4486,7 +4618,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="G13" workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4564,7 +4698,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>123</v>
       </c>
@@ -4578,7 +4712,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>149</v>
       </c>
@@ -4592,7 +4726,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>152</v>
       </c>
@@ -4606,7 +4740,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>155</v>
       </c>
@@ -4620,7 +4754,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>158</v>
       </c>
@@ -4634,7 +4768,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>138</v>
       </c>
@@ -4648,7 +4782,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>161</v>
       </c>
@@ -4662,7 +4796,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>164</v>
       </c>
@@ -4676,7 +4810,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>84</v>
       </c>
@@ -4713,7 +4847,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>20</v>
       </c>
@@ -4750,7 +4884,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>123</v>
       </c>
@@ -4764,7 +4898,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>149</v>
       </c>
@@ -4778,7 +4912,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>152</v>
       </c>
@@ -4792,7 +4926,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>155</v>
       </c>
@@ -4806,7 +4940,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>158</v>
       </c>
@@ -4820,7 +4954,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>138</v>
       </c>
@@ -4834,7 +4968,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>161</v>
       </c>
@@ -4848,7 +4982,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>164</v>
       </c>
@@ -4862,7 +4996,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
         <v>84</v>
       </c>
@@ -4899,7 +5033,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
         <v>20</v>
       </c>
@@ -4910,7 +5044,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
         <v>24</v>
       </c>
@@ -4933,7 +5067,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5011,7 +5147,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>187</v>
       </c>
@@ -5025,7 +5161,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>24</v>
       </c>
@@ -5062,7 +5198,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>20</v>
       </c>
@@ -5099,7 +5235,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>187</v>
       </c>
@@ -5113,7 +5249,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>24</v>
       </c>
@@ -5150,7 +5286,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>20</v>
       </c>
@@ -5161,7 +5297,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>24</v>
       </c>
@@ -5184,7 +5320,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5262,7 +5400,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>161</v>
       </c>
@@ -5276,7 +5414,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>210</v>
       </c>
@@ -5290,7 +5428,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>149</v>
       </c>
@@ -5304,7 +5442,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>213</v>
       </c>
@@ -5318,7 +5456,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>158</v>
       </c>
@@ -5332,7 +5470,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>216</v>
       </c>
@@ -5346,7 +5484,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>219</v>
       </c>
@@ -5360,7 +5498,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>222</v>
       </c>
@@ -5374,7 +5512,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>225</v>
       </c>
@@ -5388,7 +5526,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>228</v>
       </c>
@@ -5402,7 +5540,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>138</v>
       </c>
@@ -5416,7 +5554,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>232</v>
       </c>
@@ -5430,7 +5568,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>236</v>
       </c>
@@ -5467,7 +5605,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>20</v>
       </c>
@@ -5504,7 +5642,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>161</v>
       </c>
@@ -5518,7 +5656,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>210</v>
       </c>
@@ -5532,7 +5670,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>149</v>
       </c>
@@ -5546,7 +5684,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>213</v>
       </c>
@@ -5560,7 +5698,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>158</v>
       </c>
@@ -5574,7 +5712,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>216</v>
       </c>
@@ -5588,7 +5726,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>219</v>
       </c>
@@ -5602,7 +5740,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>222</v>
       </c>
@@ -5616,7 +5754,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>225</v>
       </c>
@@ -5630,7 +5768,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>228</v>
       </c>
@@ -5644,7 +5782,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>138</v>
       </c>
@@ -5658,7 +5796,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>232</v>
       </c>
@@ -5672,7 +5810,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
         <v>236</v>
       </c>
@@ -5695,7 +5833,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5773,7 +5913,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>251</v>
       </c>
@@ -5787,7 +5927,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>254</v>
       </c>
@@ -5801,7 +5941,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>257</v>
       </c>
@@ -5815,7 +5955,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>260</v>
       </c>
@@ -5829,7 +5969,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>138</v>
       </c>
@@ -5843,7 +5983,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>263</v>
       </c>
@@ -5857,7 +5997,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>43</v>
       </c>
@@ -5894,7 +6034,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>20</v>
       </c>
@@ -5931,7 +6071,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>251</v>
       </c>
@@ -5945,7 +6085,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>254</v>
       </c>
@@ -5959,7 +6099,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>257</v>
       </c>
@@ -5973,7 +6113,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>260</v>
       </c>
@@ -5987,7 +6127,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>138</v>
       </c>
@@ -6001,7 +6141,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>263</v>
       </c>
@@ -6015,7 +6155,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>43</v>
       </c>
@@ -6116,7 +6256,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>280</v>
       </c>
@@ -6130,7 +6270,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>283</v>
       </c>
@@ -6144,7 +6284,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>138</v>
       </c>
@@ -6158,7 +6298,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>286</v>
       </c>
@@ -6172,7 +6312,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>36</v>
       </c>
@@ -6209,7 +6349,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>20</v>
       </c>
@@ -6246,7 +6386,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>280</v>
       </c>
@@ -6260,7 +6400,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>283</v>
       </c>
@@ -6274,7 +6414,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>138</v>
       </c>
@@ -6288,7 +6428,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>286</v>
       </c>
@@ -6302,7 +6442,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>36</v>
       </c>
@@ -6325,7 +6465,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView topLeftCell="F25" workbookViewId="0"/>
+    <sheetView topLeftCell="F25" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7793,7 +7935,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>425</v>
       </c>
@@ -7807,7 +7949,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>161</v>
       </c>
@@ -7821,7 +7963,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>428</v>
       </c>
@@ -7835,7 +7977,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>158</v>
       </c>
@@ -7849,7 +7991,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>431</v>
       </c>
@@ -7863,7 +8005,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>353</v>
       </c>
@@ -7877,7 +8019,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>254</v>
       </c>
@@ -7891,7 +8033,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>434</v>
       </c>
@@ -7905,7 +8047,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>260</v>
       </c>
@@ -7919,7 +8061,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>138</v>
       </c>
@@ -7933,7 +8075,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>437</v>
       </c>
@@ -7947,7 +8089,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>233</v>
       </c>
@@ -7984,7 +8126,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>20</v>
       </c>
@@ -8007,8 +8149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="G19" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView topLeftCell="H20" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8087,7 +8229,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>149</v>
       </c>
@@ -8101,7 +8243,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>450</v>
       </c>
@@ -8115,7 +8257,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>315</v>
       </c>
@@ -8129,7 +8271,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>453</v>
       </c>
@@ -8143,7 +8285,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>456</v>
       </c>
@@ -8157,7 +8299,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>393</v>
       </c>
@@ -8171,7 +8313,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>459</v>
       </c>
@@ -8185,7 +8327,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>462</v>
       </c>
@@ -8199,7 +8341,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>340</v>
       </c>
@@ -8213,7 +8355,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>465</v>
       </c>
@@ -8227,7 +8369,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>402</v>
       </c>
@@ -8241,7 +8383,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>138</v>
       </c>
@@ -8255,7 +8397,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>468</v>
       </c>
@@ -8269,7 +8411,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>471</v>
       </c>
@@ -8283,7 +8425,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>349</v>
       </c>
@@ -8320,7 +8462,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>20</v>
       </c>
@@ -8357,7 +8499,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>484</v>
       </c>
@@ -8371,7 +8513,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>149</v>
       </c>
@@ -8385,7 +8527,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>450</v>
       </c>
@@ -8399,7 +8541,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>315</v>
       </c>
@@ -8413,7 +8555,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>453</v>
       </c>
@@ -8427,7 +8569,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>456</v>
       </c>
@@ -8441,7 +8583,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>393</v>
       </c>
@@ -8455,7 +8597,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>459</v>
       </c>
@@ -8469,7 +8611,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>462</v>
       </c>
@@ -8483,7 +8625,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>340</v>
       </c>
@@ -8497,7 +8639,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>465</v>
       </c>
@@ -8511,7 +8653,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>402</v>
       </c>
@@ -8525,7 +8667,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>138</v>
       </c>
@@ -8539,7 +8681,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>468</v>
       </c>
@@ -8553,7 +8695,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>487</v>
       </c>
@@ -8567,7 +8709,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>471</v>
       </c>
@@ -8581,7 +8723,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
         <v>349</v>
       </c>
@@ -8618,7 +8760,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
         <v>20</v>
       </c>
@@ -8629,7 +8771,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
         <v>24</v>
       </c>
@@ -8732,7 +8874,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>123</v>
       </c>
@@ -8746,7 +8888,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>500</v>
       </c>
@@ -8760,7 +8902,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>503</v>
       </c>
@@ -8774,7 +8916,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>506</v>
       </c>
@@ -8788,7 +8930,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>36</v>
       </c>
@@ -8825,7 +8967,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>20</v>
       </c>
@@ -8862,7 +9004,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>123</v>
       </c>
@@ -8876,7 +9018,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>500</v>
       </c>
@@ -8890,7 +9032,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>503</v>
       </c>
@@ -8904,7 +9046,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>506</v>
       </c>
@@ -8918,7 +9060,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>36</v>
       </c>
@@ -9324,7 +9466,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="F19" workbookViewId="0"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9402,7 +9546,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>529</v>
       </c>
@@ -9416,7 +9560,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>330</v>
       </c>
@@ -9430,7 +9574,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>532</v>
       </c>
@@ -9444,7 +9588,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>161</v>
       </c>
@@ -9458,7 +9602,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>225</v>
       </c>
@@ -9472,7 +9616,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>535</v>
       </c>
@@ -9486,7 +9630,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>538</v>
       </c>
@@ -9500,7 +9644,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>70</v>
       </c>
@@ -9537,7 +9681,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>20</v>
       </c>
@@ -9574,7 +9718,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>529</v>
       </c>
@@ -9588,7 +9732,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>330</v>
       </c>
@@ -9602,7 +9746,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>532</v>
       </c>
@@ -9616,7 +9760,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>161</v>
       </c>
@@ -9630,7 +9774,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>225</v>
       </c>
@@ -9644,7 +9788,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>535</v>
       </c>
@@ -9658,7 +9802,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>538</v>
       </c>
@@ -9672,7 +9816,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>70</v>
       </c>
@@ -9709,7 +9853,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
         <v>20</v>
       </c>
@@ -9720,7 +9864,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>24</v>
       </c>
@@ -9743,7 +9887,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9821,7 +9967,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>161</v>
       </c>
@@ -9835,7 +9981,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>561</v>
       </c>
@@ -9849,7 +9995,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>538</v>
       </c>
@@ -9863,7 +10009,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>564</v>
       </c>
@@ -9877,7 +10023,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>535</v>
       </c>
@@ -9891,7 +10037,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>40</v>
       </c>
@@ -9928,7 +10074,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>20</v>
       </c>
@@ -9965,7 +10111,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>161</v>
       </c>
@@ -9979,7 +10125,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>561</v>
       </c>
@@ -9993,7 +10139,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>538</v>
       </c>
@@ -10007,7 +10153,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>564</v>
       </c>
@@ -10021,7 +10167,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>535</v>
       </c>
@@ -10035,7 +10181,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>40</v>
       </c>
@@ -10072,7 +10218,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>20</v>
       </c>
@@ -10083,7 +10229,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>24</v>
       </c>
@@ -10184,7 +10330,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>587</v>
       </c>
@@ -10198,7 +10344,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>393</v>
       </c>
@@ -10212,7 +10358,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -10249,7 +10395,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>20</v>
       </c>
@@ -10286,7 +10432,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>587</v>
       </c>
@@ -10300,7 +10446,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>393</v>
       </c>
@@ -10314,7 +10460,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>28</v>
       </c>
@@ -10351,7 +10497,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>20</v>
       </c>
@@ -10362,7 +10508,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>24</v>
       </c>
@@ -10769,7 +10915,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
         <v>20</v>
       </c>
@@ -10818,7 +10964,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10896,7 +11044,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>642</v>
       </c>
@@ -10910,7 +11058,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>645</v>
       </c>
@@ -10924,7 +11072,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>648</v>
       </c>
@@ -10938,7 +11086,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>651</v>
       </c>
@@ -10952,7 +11100,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>36</v>
       </c>
@@ -10989,7 +11137,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>20</v>
       </c>
@@ -11026,7 +11174,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>642</v>
       </c>
@@ -11040,7 +11188,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>645</v>
       </c>
@@ -11054,7 +11202,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>648</v>
       </c>
@@ -11068,7 +11216,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>651</v>
       </c>
@@ -11082,7 +11230,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>36</v>
       </c>
@@ -11119,7 +11267,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>20</v>
       </c>
@@ -11130,7 +11278,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>24</v>
       </c>
@@ -11231,7 +11379,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>673</v>
       </c>
@@ -11245,7 +11393,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>676</v>
       </c>
@@ -11259,7 +11407,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>679</v>
       </c>
@@ -11273,7 +11421,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>682</v>
       </c>
@@ -11287,7 +11435,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>685</v>
       </c>
@@ -11301,7 +11449,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>688</v>
       </c>
@@ -11315,7 +11463,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>43</v>
       </c>
@@ -11728,7 +11876,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="G7" workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11806,7 +11956,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>19</v>
       </c>
@@ -11820,7 +11970,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>27</v>
       </c>
@@ -11834,7 +11984,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>31</v>
       </c>
@@ -11848,7 +11998,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>67</v>
       </c>
@@ -11862,7 +12012,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>23</v>
       </c>
@@ -11876,7 +12026,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>35</v>
       </c>
@@ -11890,7 +12040,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>39</v>
       </c>
@@ -11904,7 +12054,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>70</v>
       </c>
@@ -11941,7 +12091,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>20</v>
       </c>
@@ -11978,7 +12128,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>19</v>
       </c>
@@ -11992,7 +12142,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>27</v>
       </c>
@@ -12006,7 +12156,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>31</v>
       </c>
@@ -12020,7 +12170,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>67</v>
       </c>
@@ -12034,7 +12184,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>23</v>
       </c>
@@ -12048,7 +12198,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>35</v>
       </c>
@@ -12062,7 +12212,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>39</v>
       </c>
@@ -12076,7 +12226,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>70</v>
       </c>
@@ -12113,7 +12263,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
         <v>20</v>
       </c>
@@ -12124,7 +12274,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>24</v>
       </c>
@@ -12147,7 +12297,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I1:I16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12225,7 +12377,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>713</v>
       </c>
@@ -12239,7 +12391,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>716</v>
       </c>
@@ -12253,7 +12405,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>91</v>
       </c>
@@ -12267,7 +12419,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>719</v>
       </c>
@@ -12281,7 +12433,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>36</v>
       </c>
@@ -12318,7 +12470,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>20</v>
       </c>
@@ -12355,7 +12507,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>713</v>
       </c>
@@ -12369,7 +12521,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>716</v>
       </c>
@@ -12383,7 +12535,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>91</v>
       </c>
@@ -12397,7 +12549,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>719</v>
       </c>
@@ -12411,7 +12563,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>36</v>
       </c>
@@ -12448,7 +12600,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>20</v>
       </c>
@@ -12459,7 +12611,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>24</v>
       </c>
@@ -12482,7 +12634,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12560,7 +12714,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>713</v>
       </c>
@@ -12574,7 +12728,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>716</v>
       </c>
@@ -12588,7 +12742,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>91</v>
       </c>
@@ -12602,7 +12756,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>719</v>
       </c>
@@ -12616,7 +12770,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>36</v>
       </c>
@@ -12653,7 +12807,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>20</v>
       </c>
@@ -12690,7 +12844,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>713</v>
       </c>
@@ -12704,7 +12858,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>716</v>
       </c>
@@ -12718,7 +12872,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>91</v>
       </c>
@@ -12732,7 +12886,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>719</v>
       </c>
@@ -12746,7 +12900,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>36</v>
       </c>
@@ -12783,7 +12937,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>20</v>
       </c>
@@ -12794,7 +12948,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>24</v>
       </c>
@@ -12817,7 +12971,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I2:I16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12895,7 +13051,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>742</v>
       </c>
@@ -12909,7 +13065,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>745</v>
       </c>
@@ -12923,7 +13079,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>161</v>
       </c>
@@ -12937,7 +13093,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>158</v>
       </c>
@@ -12951,7 +13107,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>36</v>
       </c>
@@ -12988,7 +13144,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>20</v>
       </c>
@@ -13025,7 +13181,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>742</v>
       </c>
@@ -13039,7 +13195,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>745</v>
       </c>
@@ -13053,7 +13209,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>161</v>
       </c>
@@ -13067,7 +13223,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>158</v>
       </c>
@@ -13081,7 +13237,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>36</v>
       </c>
@@ -13118,7 +13274,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>20</v>
       </c>
@@ -13129,7 +13285,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>24</v>
       </c>
@@ -13152,7 +13308,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13230,7 +13388,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>768</v>
       </c>
@@ -13244,7 +13402,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>771</v>
       </c>
@@ -13258,7 +13416,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>161</v>
       </c>
@@ -13272,7 +13430,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>32</v>
       </c>
@@ -13309,7 +13467,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>20</v>
       </c>
@@ -13346,7 +13504,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>768</v>
       </c>
@@ -13360,7 +13518,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>771</v>
       </c>
@@ -13374,7 +13532,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>161</v>
       </c>
@@ -13388,7 +13546,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>32</v>
       </c>
@@ -13425,7 +13583,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>20</v>
       </c>
@@ -13436,7 +13594,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>24</v>
       </c>
@@ -13459,7 +13617,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13537,7 +13697,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>795</v>
       </c>
@@ -13551,7 +13711,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>798</v>
       </c>
@@ -13565,7 +13725,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -13602,7 +13762,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>20</v>
       </c>
@@ -13639,7 +13799,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>795</v>
       </c>
@@ -13653,7 +13813,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>798</v>
       </c>
@@ -13667,7 +13827,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>28</v>
       </c>
@@ -13704,7 +13864,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>20</v>
       </c>
@@ -13715,7 +13875,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>24</v>
       </c>
@@ -13790,7 +13950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15209,7 +15369,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="G7" workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15287,7 +15449,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>19</v>
       </c>
@@ -15301,7 +15463,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>27</v>
       </c>
@@ -15315,7 +15477,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>31</v>
       </c>
@@ -15329,7 +15491,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>23</v>
       </c>
@@ -15343,7 +15505,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>71</v>
       </c>
@@ -15357,7 +15519,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>74</v>
       </c>
@@ -15371,7 +15533,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>43</v>
       </c>
@@ -15408,7 +15570,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>20</v>
       </c>
@@ -15445,7 +15607,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>19</v>
       </c>
@@ -15459,7 +15621,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>27</v>
       </c>
@@ -15473,7 +15635,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>31</v>
       </c>
@@ -15487,7 +15649,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>23</v>
       </c>
@@ -15501,7 +15663,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>71</v>
       </c>
@@ -15515,7 +15677,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>74</v>
       </c>
@@ -15529,7 +15691,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>43</v>
       </c>
@@ -15566,7 +15728,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>20</v>
       </c>
@@ -15577,7 +15739,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>24</v>
       </c>
@@ -15600,8 +15762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I14"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17173,7 +17335,7 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I50"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
